--- a/skiss.xlsx
+++ b/skiss.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>chatGUI</t>
   </si>
@@ -41,9 +41,6 @@
     <t>mainController</t>
   </si>
   <si>
-    <t>1. Begär användarnamn och lyssnarport</t>
-  </si>
-  <si>
     <t>2. Skapar lyssnartråd</t>
   </si>
   <si>
@@ -56,18 +53,12 @@
     <t>Tilhör mainController.</t>
   </si>
   <si>
-    <t>newConnection()</t>
-  </si>
-  <si>
     <t>getConnectionName(): String</t>
   </si>
   <si>
     <t>ConnectionListener(int listeningPort)</t>
   </si>
   <si>
-    <t>ChatContoller(ArrayList&lt;Connection&gt; connections, String username)</t>
-  </si>
-  <si>
     <t>clearTextPasser</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
   </si>
   <si>
     <t>getEncryptionType(): String</t>
-  </si>
-  <si>
-    <t>ChatContoller(ArrayList&lt;Connection&gt; connections, String username, String encryptionType)</t>
   </si>
   <si>
     <t>getPublicKey(): String</t>
@@ -144,25 +132,40 @@
     <t>-terminateChat()</t>
   </si>
   <si>
-    <t>createChat(ArrayList&lt;Connection&gt; connectionList)</t>
-  </si>
-  <si>
-    <t>createEncryptedChat…..</t>
-  </si>
-  <si>
     <t>ControllerGUI(int listeningPort, String userName)</t>
   </si>
   <si>
-    <t>ChatContoller(ArrayList&lt;Connection&gt; connections, String username, XML incommingMesage)</t>
-  </si>
-  <si>
     <t>removeConnection(Connection c)</t>
   </si>
   <si>
     <t>updateConnections()</t>
   </si>
   <si>
-    <t>getFreConnections(): ArrayList</t>
+    <t>ChatContoller(Vector&lt;Connection&gt; connections, String username, XML incommingMesage)</t>
+  </si>
+  <si>
+    <t>ChatContoller(Vector&lt;Connection&gt; connections, String username)</t>
+  </si>
+  <si>
+    <t>ChatContoller(Vector&lt;Connection&gt; connections, String username, String encryptionType)</t>
+  </si>
+  <si>
+    <t>getFreConnections(): Vector</t>
+  </si>
+  <si>
+    <t>1. Begär användarnamn och lyssnarport (Borde ske i controllerGUI)</t>
+  </si>
+  <si>
+    <t>addNewConnection()</t>
+  </si>
+  <si>
+    <t>startChat(Vector&lt;Connection&gt; connectionList)</t>
+  </si>
+  <si>
+    <t>startEncryptedChat…..</t>
+  </si>
+  <si>
+    <t>controllerGUIClosed()</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -229,6 +232,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,39 +551,39 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -585,10 +591,10 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -601,7 +607,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -615,7 +621,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -652,7 +658,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -698,7 +704,7 @@
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -712,104 +718,104 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -817,7 +823,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -825,7 +831,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,7 +839,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -841,14 +847,16 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -942,25 +950,25 @@
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
